--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Icam2-Itgal.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Icam2-Itgal.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.59758166666667</v>
+        <v>52.08999</v>
       </c>
       <c r="H2">
-        <v>76.792745</v>
+        <v>156.26997</v>
       </c>
       <c r="I2">
-        <v>0.7690757955240869</v>
+        <v>0.9401105828221099</v>
       </c>
       <c r="J2">
-        <v>0.7690757955240868</v>
+        <v>0.9401105828221098</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.43258433333333</v>
+        <v>0.1994653333333334</v>
       </c>
       <c r="N2">
-        <v>58.29775300000001</v>
+        <v>0.598396</v>
       </c>
       <c r="O2">
-        <v>0.5025299392457538</v>
+        <v>0.01676579960230272</v>
       </c>
       <c r="P2">
-        <v>0.5025299392457538</v>
+        <v>0.01676579960230271</v>
       </c>
       <c r="Q2">
-        <v>497.4271644668872</v>
+        <v>10.39014721868</v>
       </c>
       <c r="R2">
-        <v>4476.844480201986</v>
+        <v>93.51132496812001</v>
       </c>
       <c r="S2">
-        <v>0.3864836128000992</v>
+        <v>0.0157617056355995</v>
       </c>
       <c r="T2">
-        <v>0.3864836128000991</v>
+        <v>0.0157617056355995</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.59758166666667</v>
+        <v>52.08999</v>
       </c>
       <c r="H3">
-        <v>76.792745</v>
+        <v>156.26997</v>
       </c>
       <c r="I3">
-        <v>0.7690757955240869</v>
+        <v>0.9401105828221099</v>
       </c>
       <c r="J3">
-        <v>0.7690757955240868</v>
+        <v>0.9401105828221098</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>1.143476</v>
       </c>
       <c r="O3">
-        <v>0.009856828012032944</v>
+        <v>0.03203779682023726</v>
       </c>
       <c r="P3">
-        <v>0.009856828012032942</v>
+        <v>0.03203779682023726</v>
       </c>
       <c r="Q3">
-        <v>9.756740097957778</v>
+        <v>19.85455113508</v>
       </c>
       <c r="R3">
-        <v>87.81066088162</v>
+        <v>178.69096021572</v>
       </c>
       <c r="S3">
-        <v>0.00758064784469834</v>
+        <v>0.03011907184100959</v>
       </c>
       <c r="T3">
-        <v>0.007580647844698338</v>
+        <v>0.03011907184100959</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.59758166666667</v>
+        <v>52.08999</v>
       </c>
       <c r="H4">
-        <v>76.792745</v>
+        <v>156.26997</v>
       </c>
       <c r="I4">
-        <v>0.7690757955240869</v>
+        <v>0.9401105828221099</v>
       </c>
       <c r="J4">
-        <v>0.7690757955240868</v>
+        <v>0.9401105828221098</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +679,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1430596666666667</v>
+        <v>0.2888043333333333</v>
       </c>
       <c r="N4">
-        <v>0.429179</v>
+        <v>0.8664129999999999</v>
       </c>
       <c r="O4">
-        <v>0.003699547335821904</v>
+        <v>0.02427507324719734</v>
       </c>
       <c r="P4">
-        <v>0.003699547335821903</v>
+        <v>0.02427507324719734</v>
       </c>
       <c r="Q4">
-        <v>3.661981500706111</v>
+        <v>15.04381483529</v>
       </c>
       <c r="R4">
-        <v>32.957833506355</v>
+        <v>135.39433351761</v>
       </c>
       <c r="S4">
-        <v>0.002845232310376247</v>
+        <v>0.0228212532584721</v>
       </c>
       <c r="T4">
-        <v>0.002845232310376246</v>
+        <v>0.02282125325847209</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>25.59758166666667</v>
+        <v>52.08999</v>
       </c>
       <c r="H5">
-        <v>76.792745</v>
+        <v>156.26997</v>
       </c>
       <c r="I5">
-        <v>0.7690757955240869</v>
+        <v>0.9401105828221099</v>
       </c>
       <c r="J5">
-        <v>0.7690757955240868</v>
+        <v>0.9401105828221098</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.712703</v>
+        <v>11.02772766666667</v>
       </c>
       <c r="N5">
-        <v>56.138109</v>
+        <v>33.083183</v>
       </c>
       <c r="O5">
-        <v>0.4839136854063913</v>
+        <v>0.9269213303302627</v>
       </c>
       <c r="P5">
-        <v>0.4839136854063913</v>
+        <v>0.9269213303302626</v>
       </c>
       <c r="Q5">
-        <v>478.9999432465784</v>
+        <v>574.4342238793899</v>
       </c>
       <c r="R5">
-        <v>4310.999489219204</v>
+        <v>5169.908014914509</v>
       </c>
       <c r="S5">
-        <v>0.3721663025689131</v>
+        <v>0.8714085520870287</v>
       </c>
       <c r="T5">
-        <v>0.372166302568913</v>
+        <v>0.8714085520870285</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1.637574</v>
       </c>
       <c r="I6">
-        <v>0.01640022800043886</v>
+        <v>0.009851545038079508</v>
       </c>
       <c r="J6">
-        <v>0.01640022800043885</v>
+        <v>0.009851545038079508</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.43258433333333</v>
+        <v>0.1994653333333334</v>
       </c>
       <c r="N6">
-        <v>58.29775300000001</v>
+        <v>0.598396</v>
       </c>
       <c r="O6">
-        <v>0.5025299392457538</v>
+        <v>0.01676579960230272</v>
       </c>
       <c r="P6">
-        <v>0.5025299392457538</v>
+        <v>0.01676579960230271</v>
       </c>
       <c r="Q6">
-        <v>10.60743161902467</v>
+        <v>0.1088797479226667</v>
       </c>
       <c r="R6">
-        <v>95.46688457122201</v>
+        <v>0.979917731304</v>
       </c>
       <c r="S6">
-        <v>0.008241605580677049</v>
+        <v>0.0001651690298815007</v>
       </c>
       <c r="T6">
-        <v>0.008241605580677047</v>
+        <v>0.0001651690298815007</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.637574</v>
       </c>
       <c r="I7">
-        <v>0.01640022800043886</v>
+        <v>0.009851545038079508</v>
       </c>
       <c r="J7">
-        <v>0.01640022800043885</v>
+        <v>0.009851545038079508</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>1.143476</v>
       </c>
       <c r="O7">
-        <v>0.009856828012032944</v>
+        <v>0.03203779682023726</v>
       </c>
       <c r="P7">
-        <v>0.009856828012032942</v>
+        <v>0.03203779682023726</v>
       </c>
       <c r="Q7">
         <v>0.2080585074693333</v>
@@ -883,10 +883,10 @@
         <v>1.872526567224</v>
       </c>
       <c r="S7">
-        <v>0.0001616542267584528</v>
+        <v>0.0003156217982954078</v>
       </c>
       <c r="T7">
-        <v>0.0001616542267584527</v>
+        <v>0.0003156217982954078</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1.637574</v>
       </c>
       <c r="I8">
-        <v>0.01640022800043886</v>
+        <v>0.009851545038079508</v>
       </c>
       <c r="J8">
-        <v>0.01640022800043885</v>
+        <v>0.009851545038079508</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,28 +927,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.1430596666666667</v>
+        <v>0.2888043333333333</v>
       </c>
       <c r="N8">
-        <v>0.429179</v>
+        <v>0.8664129999999999</v>
       </c>
       <c r="O8">
-        <v>0.003699547335821904</v>
+        <v>0.02427507324719734</v>
       </c>
       <c r="P8">
-        <v>0.003699547335821903</v>
+        <v>0.02427507324719734</v>
       </c>
       <c r="Q8">
-        <v>0.07809026352733332</v>
+        <v>0.1576461557846666</v>
       </c>
       <c r="R8">
-        <v>0.702812371746</v>
+        <v>1.418815402062</v>
       </c>
       <c r="S8">
-        <v>6.067341980589536E-05</v>
+        <v>0.0002391469773974436</v>
       </c>
       <c r="T8">
-        <v>6.067341980589534E-05</v>
+        <v>0.0002391469773974435</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1.637574</v>
       </c>
       <c r="I9">
-        <v>0.01640022800043886</v>
+        <v>0.009851545038079508</v>
       </c>
       <c r="J9">
-        <v>0.01640022800043885</v>
+        <v>0.009851545038079508</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.712703</v>
+        <v>11.02772766666667</v>
       </c>
       <c r="N9">
-        <v>56.138109</v>
+        <v>33.083183</v>
       </c>
       <c r="O9">
-        <v>0.4839136854063913</v>
+        <v>0.9269213303302627</v>
       </c>
       <c r="P9">
-        <v>0.4839136854063913</v>
+        <v>0.9269213303302626</v>
       </c>
       <c r="Q9">
-        <v>10.214478634174</v>
+        <v>6.019573368671332</v>
       </c>
       <c r="R9">
-        <v>91.93030770756599</v>
+        <v>54.17616031804199</v>
       </c>
       <c r="S9">
-        <v>0.007936294773197459</v>
+        <v>0.009131607232505156</v>
       </c>
       <c r="T9">
-        <v>0.007936294773197457</v>
+        <v>0.009131607232505156</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.262138666666667</v>
+        <v>1.744358333333333</v>
       </c>
       <c r="H10">
-        <v>3.786416</v>
+        <v>5.233075</v>
       </c>
       <c r="I10">
-        <v>0.03792078141476946</v>
+        <v>0.03148185917103467</v>
       </c>
       <c r="J10">
-        <v>0.03792078141476946</v>
+        <v>0.03148185917103467</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.43258433333333</v>
+        <v>0.1994653333333334</v>
       </c>
       <c r="N10">
-        <v>58.29775300000001</v>
+        <v>0.598396</v>
       </c>
       <c r="O10">
-        <v>0.5025299392457538</v>
+        <v>0.01676579960230272</v>
       </c>
       <c r="P10">
-        <v>0.5025299392457538</v>
+        <v>0.01676579960230271</v>
       </c>
       <c r="Q10">
-        <v>24.52661608036089</v>
+        <v>0.3479390164111112</v>
       </c>
       <c r="R10">
-        <v>220.739544723248</v>
+        <v>3.1314511477</v>
       </c>
       <c r="S10">
-        <v>0.01905632798051561</v>
+        <v>0.0005278185419694833</v>
       </c>
       <c r="T10">
-        <v>0.01905632798051561</v>
+        <v>0.0005278185419694831</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1.262138666666667</v>
+        <v>1.744358333333333</v>
       </c>
       <c r="H11">
-        <v>3.786416</v>
+        <v>5.233075</v>
       </c>
       <c r="I11">
-        <v>0.03792078141476946</v>
+        <v>0.03148185917103467</v>
       </c>
       <c r="J11">
-        <v>0.03792078141476946</v>
+        <v>0.03148185917103467</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>1.143476</v>
       </c>
       <c r="O11">
-        <v>0.009856828012032944</v>
+        <v>0.03203779682023726</v>
       </c>
       <c r="P11">
-        <v>0.009856828012032942</v>
+        <v>0.03203779682023726</v>
       </c>
       <c r="Q11">
-        <v>0.481075091335111</v>
+        <v>0.6648772965222223</v>
       </c>
       <c r="R11">
-        <v>4.329675822015999</v>
+        <v>5.9838956687</v>
       </c>
       <c r="S11">
-        <v>0.0003737786204872779</v>
+        <v>0.001008609407644932</v>
       </c>
       <c r="T11">
-        <v>0.0003737786204872778</v>
+        <v>0.001008609407644932</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.262138666666667</v>
+        <v>1.744358333333333</v>
       </c>
       <c r="H12">
-        <v>3.786416</v>
+        <v>5.233075</v>
       </c>
       <c r="I12">
-        <v>0.03792078141476946</v>
+        <v>0.03148185917103467</v>
       </c>
       <c r="J12">
-        <v>0.03792078141476946</v>
+        <v>0.03148185917103467</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1175,28 +1175,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1430596666666667</v>
+        <v>0.2888043333333333</v>
       </c>
       <c r="N12">
-        <v>0.429179</v>
+        <v>0.8664129999999999</v>
       </c>
       <c r="O12">
-        <v>0.003699547335821904</v>
+        <v>0.02427507324719734</v>
       </c>
       <c r="P12">
-        <v>0.003699547335821903</v>
+        <v>0.02427507324719734</v>
       </c>
       <c r="Q12">
-        <v>0.1805611369404444</v>
+        <v>0.5037782455527777</v>
       </c>
       <c r="R12">
-        <v>1.625050232464</v>
+        <v>4.534004209975</v>
       </c>
       <c r="S12">
-        <v>0.0001402897258552951</v>
+        <v>0.0007642244373348181</v>
       </c>
       <c r="T12">
-        <v>0.0001402897258552951</v>
+        <v>0.0007642244373348178</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>1.262138666666667</v>
+        <v>1.744358333333333</v>
       </c>
       <c r="H13">
-        <v>3.786416</v>
+        <v>5.233075</v>
       </c>
       <c r="I13">
-        <v>0.03792078141476946</v>
+        <v>0.03148185917103467</v>
       </c>
       <c r="J13">
-        <v>0.03792078141476946</v>
+        <v>0.03148185917103467</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.712703</v>
+        <v>11.02772766666667</v>
       </c>
       <c r="N13">
-        <v>56.138109</v>
+        <v>33.083183</v>
       </c>
       <c r="O13">
-        <v>0.4839136854063913</v>
+        <v>0.9269213303302627</v>
       </c>
       <c r="P13">
-        <v>0.4839136854063913</v>
+        <v>0.9269213303302626</v>
       </c>
       <c r="Q13">
-        <v>23.61802601414933</v>
+        <v>19.23630865308056</v>
       </c>
       <c r="R13">
-        <v>212.562234127344</v>
+        <v>173.126777877725</v>
       </c>
       <c r="S13">
-        <v>0.01835038508791128</v>
+        <v>0.02918120678408544</v>
       </c>
       <c r="T13">
-        <v>0.01835038508791128</v>
+        <v>0.02918120678408543</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.877983333333333</v>
+        <v>1.028158333333334</v>
       </c>
       <c r="H14">
-        <v>17.63395</v>
+        <v>3.084475</v>
       </c>
       <c r="I14">
-        <v>0.1766031950607049</v>
+        <v>0.01855601296877595</v>
       </c>
       <c r="J14">
-        <v>0.1766031950607049</v>
+        <v>0.01855601296877594</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.43258433333333</v>
+        <v>0.1994653333333334</v>
       </c>
       <c r="N14">
-        <v>58.29775300000001</v>
+        <v>0.598396</v>
       </c>
       <c r="O14">
-        <v>0.5025299392457538</v>
+        <v>0.01676579960230272</v>
       </c>
       <c r="P14">
-        <v>0.5025299392457538</v>
+        <v>0.01676579960230271</v>
       </c>
       <c r="Q14">
-        <v>114.2244068349278</v>
+        <v>0.2050819446777778</v>
       </c>
       <c r="R14">
-        <v>1028.01966151435</v>
+        <v>1.8457375021</v>
       </c>
       <c r="S14">
-        <v>0.08874839288446205</v>
+        <v>0.0003111063948522278</v>
       </c>
       <c r="T14">
-        <v>0.08874839288446204</v>
+        <v>0.0003111063948522276</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.877983333333333</v>
+        <v>1.028158333333334</v>
       </c>
       <c r="H15">
-        <v>17.63395</v>
+        <v>3.084475</v>
       </c>
       <c r="I15">
-        <v>0.1766031950607049</v>
+        <v>0.01855601296877595</v>
       </c>
       <c r="J15">
-        <v>0.1766031950607049</v>
+        <v>0.01855601296877594</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,22 +1367,22 @@
         <v>1.143476</v>
       </c>
       <c r="O15">
-        <v>0.009856828012032944</v>
+        <v>0.03203779682023726</v>
       </c>
       <c r="P15">
-        <v>0.009856828012032942</v>
+        <v>0.03203779682023726</v>
       </c>
       <c r="Q15">
-        <v>2.240444290022222</v>
+        <v>0.3918914594555556</v>
       </c>
       <c r="R15">
-        <v>20.1639986102</v>
+        <v>3.5270231351</v>
       </c>
       <c r="S15">
-        <v>0.001740747320088874</v>
+        <v>0.0005944937732873314</v>
       </c>
       <c r="T15">
-        <v>0.001740747320088874</v>
+        <v>0.0005944937732873313</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.877983333333333</v>
+        <v>1.028158333333334</v>
       </c>
       <c r="H16">
-        <v>17.63395</v>
+        <v>3.084475</v>
       </c>
       <c r="I16">
-        <v>0.1766031950607049</v>
+        <v>0.01855601296877595</v>
       </c>
       <c r="J16">
-        <v>0.1766031950607049</v>
+        <v>0.01855601296877594</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1423,28 +1423,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.1430596666666667</v>
+        <v>0.2888043333333333</v>
       </c>
       <c r="N16">
-        <v>0.429179</v>
+        <v>0.8664129999999999</v>
       </c>
       <c r="O16">
-        <v>0.003699547335821904</v>
+        <v>0.02427507324719734</v>
       </c>
       <c r="P16">
-        <v>0.003699547335821903</v>
+        <v>0.02427507324719734</v>
       </c>
       <c r="Q16">
-        <v>0.8409023363388889</v>
+        <v>0.2969365820194445</v>
       </c>
       <c r="R16">
-        <v>7.56812102705</v>
+        <v>2.672429238175</v>
       </c>
       <c r="S16">
-        <v>0.0006533518797844668</v>
+        <v>0.0004504485739929798</v>
       </c>
       <c r="T16">
-        <v>0.0006533518797844667</v>
+        <v>0.0004504485739929797</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.877983333333333</v>
+        <v>1.028158333333334</v>
       </c>
       <c r="H17">
-        <v>17.63395</v>
+        <v>3.084475</v>
       </c>
       <c r="I17">
-        <v>0.1766031950607049</v>
+        <v>0.01855601296877595</v>
       </c>
       <c r="J17">
-        <v>0.1766031950607049</v>
+        <v>0.01855601296877594</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.712703</v>
+        <v>11.02772766666667</v>
       </c>
       <c r="N17">
-        <v>56.138109</v>
+        <v>33.083183</v>
       </c>
       <c r="O17">
-        <v>0.4839136854063913</v>
+        <v>0.9269213303302627</v>
       </c>
       <c r="P17">
-        <v>0.4839136854063913</v>
+        <v>0.9269213303302626</v>
       </c>
       <c r="Q17">
-        <v>109.9929563556167</v>
+        <v>11.33825009821389</v>
       </c>
       <c r="R17">
-        <v>989.9366072005499</v>
+        <v>102.044250883925</v>
       </c>
       <c r="S17">
-        <v>0.08546070297636951</v>
+        <v>0.01719996422664341</v>
       </c>
       <c r="T17">
-        <v>0.0854607029763695</v>
+        <v>0.0171999642266434</v>
       </c>
     </row>
   </sheetData>
